--- a/Lab7/Deliverables/Port_Assignments.xlsx
+++ b/Lab7/Deliverables/Port_Assignments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keil\ValvanoWareTM4C123\EE-445L-Labs\Lab7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keil\ValvanoWareTM4C123\EE-445L-Labs\Lab7\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -170,7 +170,7 @@
     <t>PD3 - (STICK) H2, Ain4</t>
   </si>
   <si>
-    <t xml:space="preserve">PB6 - </t>
+    <t>PB6 - (LogAn)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
